--- a/estimates.xlsx
+++ b/estimates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="400" windowWidth="23220" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="3260" yWindow="-18380" windowWidth="22020" windowHeight="8980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Ply</t>
   </si>
@@ -58,6 +58,33 @@
   </si>
   <si>
     <t>Sec/pos</t>
+  </si>
+  <si>
+    <t>Bzip -1 file</t>
+  </si>
+  <si>
+    <t>Uniq</t>
+  </si>
+  <si>
+    <t>26m</t>
+  </si>
+  <si>
+    <t>288m</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>20d</t>
+  </si>
+  <si>
+    <t>a(ply)</t>
+  </si>
+  <si>
+    <t>Dups</t>
+  </si>
+  <si>
+    <t>Best</t>
   </si>
 </sst>
 </file>
@@ -114,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,7 +170,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="92">
+  <cellStyleXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -230,8 +263,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -243,13 +304,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="92">
+  <cellStyles count="120">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -295,6 +357,20 @@
     <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -340,6 +416,20 @@
     <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -670,645 +760,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" customWidth="1"/>
-    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.83203125" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1">
+    <row r="1" spans="1:22" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="H2" s="1">
         <v>55</v>
       </c>
-      <c r="F2" s="2">
-        <f t="shared" ref="F2:F13" si="0">D2/B2</f>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:J13" si="0">H2/E2</f>
         <v>55</v>
       </c>
-      <c r="G2" s="1">
+      <c r="K2" s="1">
         <v>58</v>
       </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:H13" si="1">G2/D2</f>
+      <c r="L2" s="2">
+        <f>K2/1000000000</f>
+        <v>5.8000000000000003E-8</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:M13" si="1">K2/H2</f>
         <v>1.0545454545454545</v>
       </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2:I13" si="2">G2/1000000000</f>
-        <v>5.8000000000000003E-8</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="1">
+        <v>86</v>
+      </c>
+      <c r="O2" s="5">
+        <f>N2/H2</f>
+        <v>1.5636363636363637</v>
+      </c>
+      <c r="P2" s="2">
+        <f>N2/1000000000</f>
+        <v>8.6000000000000002E-8</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C13" si="3">B3/B2</f>
+      <c r="F3" s="2">
+        <f t="shared" ref="C3:F13" si="2">E3/E2</f>
         <v>20</v>
       </c>
-      <c r="D3" s="1">
+      <c r="H3" s="1">
         <v>1134</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E13" si="4">D3/D2</f>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I13" si="3">H3/H2</f>
         <v>20.618181818181817</v>
       </c>
-      <c r="F3" s="2">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>56.7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="K3" s="1">
         <v>189</v>
       </c>
-      <c r="H3" s="5">
+      <c r="L3" s="2">
+        <f>K3/1000000000</f>
+        <v>1.8900000000000001E-7</v>
+      </c>
+      <c r="M3" s="5">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8900000000000001E-7</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3" s="1">
+        <v>221</v>
+      </c>
+      <c r="O3" s="5">
+        <f>N3/H3</f>
+        <v>0.19488536155202821</v>
+      </c>
+      <c r="P3" s="2">
+        <f>N3/1000000000</f>
+        <v>2.2100000000000001E-7</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>400</v>
       </c>
-      <c r="C4" s="2">
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>23360</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>23360</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="4"/>
         <v>20.599647266313934</v>
       </c>
-      <c r="F4" s="2">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>58.4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="K4" s="1">
         <v>1577</v>
       </c>
-      <c r="H4" s="5">
+      <c r="L4" s="2">
+        <f>K4/1000000000</f>
+        <v>1.5770000000000001E-6</v>
+      </c>
+      <c r="M4" s="5">
         <f t="shared" si="1"/>
         <v>6.7508561643835618E-2</v>
       </c>
-      <c r="I4" s="2">
-        <f t="shared" si="2"/>
-        <v>1.5770000000000001E-6</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4" s="1">
+        <v>1021</v>
+      </c>
+      <c r="O4" s="5">
+        <f>N4/H4</f>
+        <v>4.370719178082192E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <f>N4/1000000000</f>
+        <v>1.0210000000000001E-6</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>5362</v>
       </c>
-      <c r="C5" s="2">
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>13.404999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>318818</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="3"/>
-        <v>13.404999999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>318818</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="4"/>
         <v>13.648030821917809</v>
       </c>
-      <c r="F5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>59.458784035807533</v>
       </c>
-      <c r="G5" s="1">
+      <c r="K5" s="1">
         <v>21346</v>
       </c>
-      <c r="H5" s="5">
+      <c r="L5" s="2">
+        <f>K5/1000000000</f>
+        <v>2.1345999999999999E-5</v>
+      </c>
+      <c r="M5" s="5">
         <f t="shared" si="1"/>
         <v>6.6953559711183178E-2</v>
       </c>
-      <c r="I5" s="2">
-        <f t="shared" si="2"/>
-        <v>2.1345999999999999E-5</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5" s="1">
+        <v>15540</v>
+      </c>
+      <c r="O5" s="5">
+        <f>N5/H5</f>
+        <v>4.8742542767346887E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <f>N5/1000000000</f>
+        <v>1.554E-5</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>72078</v>
       </c>
-      <c r="C6" s="2">
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>13.44237224916076</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4359874</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="3"/>
-        <v>13.44237224916076</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4359874</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="4"/>
         <v>13.675118719771154</v>
       </c>
-      <c r="F6" s="2">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>60.488276589250532</v>
       </c>
-      <c r="G6" s="1">
+      <c r="K6" s="1">
         <v>292700</v>
       </c>
-      <c r="H6" s="5">
+      <c r="L6" s="2">
+        <f>K6/1000000000</f>
+        <v>2.9270000000000001E-4</v>
+      </c>
+      <c r="M6" s="5">
         <f t="shared" si="1"/>
         <v>6.7134967661909489E-2</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" si="2"/>
-        <v>2.9270000000000001E-4</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6" s="1">
+        <v>212830</v>
+      </c>
+      <c r="O6" s="5">
+        <f>N6/H6</f>
+        <v>4.8815630910434567E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <f>N6/1000000000</f>
+        <v>2.1283000000000001E-4</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>822518</v>
       </c>
-      <c r="C7" s="2">
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>11.41149865423569</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50521580</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="3"/>
-        <v>11.41149865423569</v>
-      </c>
-      <c r="D7" s="1">
-        <v>50521580</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="4"/>
         <v>11.587853226951054</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>61.42306916079648</v>
       </c>
-      <c r="G7" s="1">
+      <c r="K7" s="1">
         <v>4262875</v>
       </c>
-      <c r="H7" s="5">
+      <c r="L7" s="2">
+        <f>K7/1000000000</f>
+        <v>4.2628750000000002E-3</v>
+      </c>
+      <c r="M7" s="5">
         <f t="shared" si="1"/>
         <v>8.4377309656586352E-2</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="2"/>
-        <v>4.2628750000000002E-3</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7" s="1">
+        <v>3340972</v>
+      </c>
+      <c r="O7" s="5">
+        <f>N7/H7</f>
+        <v>6.6129602439195287E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <f>N7/1000000000</f>
+        <v>3.3409720000000002E-3</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>9417681</v>
       </c>
-      <c r="C8" s="2">
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>11.449817511592451</v>
+      </c>
+      <c r="H8" s="1">
+        <v>587173651</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="3"/>
-        <v>11.449817511592451</v>
-      </c>
-      <c r="D8" s="1">
-        <v>587173651</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="4"/>
         <v>11.62223451839788</v>
       </c>
-      <c r="F8" s="2">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>62.348008071201392</v>
       </c>
-      <c r="G8" s="1">
+      <c r="K8" s="1">
         <v>48888089</v>
       </c>
-      <c r="H8" s="5">
+      <c r="L8" s="2">
+        <f>K8/1000000000</f>
+        <v>4.8888089000000003E-2</v>
+      </c>
+      <c r="M8" s="5">
         <f t="shared" si="1"/>
         <v>8.3260018423408438E-2</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="2"/>
-        <v>4.8888089000000003E-2</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="N8" s="1">
+        <v>38130146</v>
+      </c>
+      <c r="O8" s="5">
+        <f>N8/H8</f>
+        <v>6.4938448677084801E-2</v>
+      </c>
+      <c r="P8" s="2">
+        <f>N8/1000000000</f>
+        <v>3.8130145999999997E-2</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="7">
         <v>6.2E-2</v>
       </c>
-      <c r="K8" s="1">
+      <c r="S8" s="1">
         <f>14-A8</f>
         <v>8</v>
       </c>
-      <c r="L8" s="11">
-        <f>L9*L9/L10</f>
+      <c r="T8" s="10">
+        <f>T9*T9/T10</f>
         <v>9077.0175999999974</v>
       </c>
-      <c r="M8" s="1">
-        <f t="shared" ref="M8:M13" si="5">B8*L8/3600</f>
+      <c r="U8" s="1">
+        <f t="shared" ref="U8:U13" si="4">E8*T8/3600</f>
         <v>23745682.274495993</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" ref="N8:N13" si="6">M8/96/24</f>
+      <c r="V8" s="11">
+        <f t="shared" ref="V8:V13" si="5">U8/96/24</f>
         <v>10306.285709416663</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>96400068</v>
       </c>
-      <c r="C9" s="2">
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>10.236072765684035</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6091865401</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="3"/>
-        <v>10.236072765684035</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6091865401</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="4"/>
         <v>10.374895723990857</v>
       </c>
-      <c r="F9" s="2">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>63.193579915317073</v>
       </c>
-      <c r="G9" s="1">
+      <c r="K9" s="1">
         <v>510402021</v>
       </c>
-      <c r="H9" s="5">
+      <c r="L9" s="2">
+        <f>K9/1000000000</f>
+        <v>0.51040202099999998</v>
+      </c>
+      <c r="M9" s="5">
         <f t="shared" si="1"/>
         <v>8.3784192099223956E-2</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.51040202099999998</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="N9" s="1">
+        <v>395905201</v>
+      </c>
+      <c r="O9" s="5">
+        <f>N9/H9</f>
+        <v>6.4989157661791225E-2</v>
+      </c>
+      <c r="P9" s="2">
+        <f>N9/1000000000</f>
+        <v>0.39590520099999998</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="S9" s="1">
         <f>14-A9</f>
         <v>7</v>
       </c>
-      <c r="L9" s="11">
-        <f>L10*L10/L11</f>
+      <c r="T9" s="10">
+        <f>T10*T10/T11</f>
         <v>306.65599999999995</v>
       </c>
-      <c r="M9" s="1">
+      <c r="U9" s="1">
+        <f t="shared" si="4"/>
+        <v>8211572.0146133313</v>
+      </c>
+      <c r="V9" s="11">
         <f t="shared" si="5"/>
-        <v>8211572.0146133313</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="6"/>
         <v>3564.0503535648136</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
         <v>988187354</v>
       </c>
-      <c r="C10" s="2">
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>10.250898930901169</v>
+      </c>
+      <c r="H10" s="1">
+        <v>63182420914</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>10.250898930901169</v>
-      </c>
-      <c r="D10" s="1">
-        <v>63182420914</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="4"/>
         <v>10.371604878799259</v>
       </c>
-      <c r="F10" s="2">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>63.937694262377697</v>
       </c>
-      <c r="G10" s="1">
+      <c r="K10" s="1">
         <v>5259121674</v>
       </c>
-      <c r="H10" s="5">
+      <c r="L10" s="2">
+        <f>K10/1000000000</f>
+        <v>5.2591216740000002</v>
+      </c>
+      <c r="M10" s="5">
         <f t="shared" si="1"/>
         <v>8.3237102946061389E-2</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" si="2"/>
-        <v>5.2591216740000002</v>
-      </c>
-      <c r="J10" s="7">
-        <f>J9*E10</f>
-        <v>7.2808666249170795</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="N10" s="1">
+        <v>4076549873</v>
+      </c>
+      <c r="O10" s="5">
+        <f>N10/H10</f>
+        <v>6.4520317740732774E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <f>N10/1000000000</f>
+        <v>4.0765498730000003</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="2">
+        <v>11</v>
+      </c>
+      <c r="S10" s="1">
         <f>14-A10</f>
         <v>6</v>
       </c>
-      <c r="L10" s="10">
+      <c r="T10" s="9">
         <f>1036/100</f>
         <v>10.36</v>
       </c>
-      <c r="M10" s="1">
+      <c r="U10" s="1">
+        <f t="shared" si="4"/>
+        <v>2843783.607622222</v>
+      </c>
+      <c r="V10" s="11">
         <f t="shared" si="5"/>
-        <v>2843783.607622222</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="6"/>
         <v>1234.2810796971451</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
+        <v>2439530234167</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <f>60*14+45</f>
+        <v>885</v>
+      </c>
+      <c r="E11" s="1">
         <v>9183421888</v>
       </c>
-      <c r="C11" s="2">
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>9.2931991598831978</v>
+      </c>
+      <c r="G11" s="2">
+        <f>B11/E11</f>
+        <v>265.64501379978418</v>
+      </c>
+      <c r="H11" s="10">
+        <f>E11*65</f>
+        <v>596922422720</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="3"/>
-        <v>9.2931991598831978</v>
-      </c>
-      <c r="D11" s="11">
-        <f>B11*65</f>
-        <v>596922422720</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="4"/>
         <v>9.4476028946800543</v>
       </c>
-      <c r="F11" s="2">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G11" s="11">
-        <f>D11*0.1</f>
-        <v>59692242272</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="K11" s="10">
+        <f>H11*0.09</f>
+        <v>53723018044.799995</v>
+      </c>
+      <c r="L11" s="2">
+        <f>K11/1000000000</f>
+        <v>53.723018044799993</v>
+      </c>
+      <c r="M11" s="5">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="2"/>
-        <v>59.692242272000001</v>
-      </c>
-      <c r="J11" s="2">
-        <f>J10*E11</f>
-        <v>68.786736601345993</v>
-      </c>
-      <c r="K11" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="N11" s="10">
+        <f>H11*0.07</f>
+        <v>41784569590.400002</v>
+      </c>
+      <c r="O11" s="5">
+        <f>N11/H11</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P11" s="2">
+        <f>N11/1000000000</f>
+        <v>41.784569590400004</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="2">
+        <f>R10*I11</f>
+        <v>103.9236318414806</v>
+      </c>
+      <c r="S11" s="1">
         <f>14-A11</f>
         <v>5</v>
       </c>
-      <c r="L11" s="8">
+      <c r="T11" s="7">
         <v>0.35</v>
       </c>
-      <c r="M11" s="1">
+      <c r="U11" s="1">
+        <f t="shared" si="4"/>
+        <v>892832.68355555553</v>
+      </c>
+      <c r="V11" s="11">
         <f t="shared" si="5"/>
-        <v>892832.68355555553</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="6"/>
         <v>387.51418557098765</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
+        <v>69352859712417</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
+        <v>28.42877646732596</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5456</v>
+      </c>
+      <c r="E12" s="1">
         <v>85375278064</v>
       </c>
-      <c r="C12" s="2">
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>9.2966738439361141</v>
+      </c>
+      <c r="G12" s="2">
+        <f>B12/E12</f>
+        <v>812.32953244881867</v>
+      </c>
+      <c r="H12" s="10">
+        <f>E12*65</f>
+        <v>5549393074160</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="3"/>
         <v>9.2966738439361141</v>
       </c>
-      <c r="D12" s="11">
-        <f>B12*65</f>
-        <v>5549393074160</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="4"/>
-        <v>9.2966738439361141</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G12" s="11">
-        <f>D12*0.1</f>
-        <v>554939307416</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="K12" s="10">
+        <f>H12*0.09</f>
+        <v>499445376674.39996</v>
+      </c>
+      <c r="L12" s="2">
+        <f>K12/1000000000</f>
+        <v>499.44537667439994</v>
+      </c>
+      <c r="M12" s="5">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="2"/>
-        <v>554.93930741600002</v>
-      </c>
-      <c r="J12" s="1">
-        <f>J11*E12</f>
-        <v>639.48785497145627</v>
-      </c>
-      <c r="K12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="N12" s="10">
+        <f>H12*0.07</f>
+        <v>388457515191.20001</v>
+      </c>
+      <c r="O12" s="5">
+        <f>N12/H12</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P12" s="2">
+        <f>N12/1000000000</f>
+        <v>388.4575151912</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="11">
+        <f>R11*I12</f>
+        <v>966.14410990753902</v>
+      </c>
+      <c r="S12" s="1">
         <f>14-A12</f>
         <v>4</v>
       </c>
-      <c r="L12" s="8">
+      <c r="T12" s="7">
         <f>120/10000</f>
         <v>1.2E-2</v>
       </c>
-      <c r="M12" s="1">
+      <c r="U12" s="1">
+        <f t="shared" si="4"/>
+        <v>284584.26021333336</v>
+      </c>
+      <c r="V12" s="11">
         <f t="shared" si="5"/>
-        <v>284584.26021333336</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="6"/>
         <v>123.51747405092594</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
         <v>726155461002</v>
       </c>
-      <c r="C13" s="2">
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5054535395791149</v>
+      </c>
+      <c r="H13" s="10">
+        <f>E13*65</f>
+        <v>47200104965130</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="3"/>
         <v>8.5054535395791149</v>
       </c>
-      <c r="D13" s="11">
-        <f>B13*65</f>
-        <v>47200104965130</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="4"/>
-        <v>8.5054535395791149</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G13" s="11">
-        <f>D13*0.1</f>
-        <v>4720010496513</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="K13" s="10">
+        <f>H13*0.09</f>
+        <v>4248009446861.6997</v>
+      </c>
+      <c r="L13" s="12">
+        <f>K13/1000000000</f>
+        <v>4248.0094468616999</v>
+      </c>
+      <c r="M13" s="5">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="2"/>
-        <v>4720.0104965130004</v>
-      </c>
-      <c r="J13" s="1">
-        <f>J12*E13</f>
-        <v>5439.1342395848287</v>
-      </c>
-      <c r="K13" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="N13" s="10">
+        <f>H13*0.07</f>
+        <v>3304007347559.1001</v>
+      </c>
+      <c r="O13" s="5">
+        <f>N13/H13</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P13" s="12">
+        <f>N13/1000000000</f>
+        <v>3304.0073475591003</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="11">
+        <f>R12*I13</f>
+        <v>8217.4938393565917</v>
+      </c>
+      <c r="S13" s="1">
         <v>3</v>
       </c>
-      <c r="L13" s="9">
+      <c r="T13" s="8">
         <f>6.6/10000</f>
         <v>6.6E-4</v>
       </c>
-      <c r="M13" s="1">
+      <c r="U13" s="1">
+        <f t="shared" si="4"/>
+        <v>133128.50118369999</v>
+      </c>
+      <c r="V13" s="1">
         <f t="shared" si="5"/>
-        <v>133128.50118369999</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="6"/>
         <v>57.781467527647571</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="H14" s="6"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="H15" s="6"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="12:12">
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="12:12">
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="12:12">
-      <c r="L19" s="8"/>
+    <row r="14" spans="1:22">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="20:20">
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="20:20">
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="20:20">
+      <c r="T19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/estimates.xlsx
+++ b/estimates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="-18380" windowWidth="22020" windowHeight="8980" tabRatio="500"/>
+    <workbookView xWindow="-60" yWindow="2720" windowWidth="29880" windowHeight="11580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Ply</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Best</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Dry run Test 294</t>
+  </si>
+  <si>
+    <t>Hz</t>
   </si>
 </sst>
 </file>
@@ -97,7 +106,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,8 +149,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +176,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -169,8 +190,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="120">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -291,8 +392,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -310,8 +440,36 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="120" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="120">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -371,6 +529,21 @@
     <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="120" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -430,6 +603,20 @@
     <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -760,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -790,9 +977,14 @@
     <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1">
+    <row r="1" spans="1:27" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -859,8 +1051,21 @@
       <c r="V1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="W1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -881,22 +1086,22 @@
         <v>58</v>
       </c>
       <c r="L2" s="2">
-        <f>K2/1000000000</f>
+        <f t="shared" ref="L2:L13" si="1">K2/1000000000</f>
         <v>5.8000000000000003E-8</v>
       </c>
       <c r="M2" s="5">
-        <f t="shared" ref="M2:M13" si="1">K2/H2</f>
+        <f t="shared" ref="M2:M13" si="2">K2/H2</f>
         <v>1.0545454545454545</v>
       </c>
       <c r="N2" s="1">
         <v>86</v>
       </c>
       <c r="O2" s="5">
-        <f>N2/H2</f>
+        <f t="shared" ref="O2:O13" si="3">N2/H2</f>
         <v>1.5636363636363637</v>
       </c>
       <c r="P2" s="2">
-        <f>N2/1000000000</f>
+        <f t="shared" ref="P2:P13" si="4">N2/1000000000</f>
         <v>8.6000000000000002E-8</v>
       </c>
       <c r="Q2" s="2"/>
@@ -905,8 +1110,13 @@
       <c r="T2" s="7"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="24"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -917,14 +1127,14 @@
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="C3:F13" si="2">E3/E2</f>
+        <f t="shared" ref="C3:F13" si="5">E3/E2</f>
         <v>20</v>
       </c>
       <c r="H3" s="1">
         <v>1134</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I13" si="3">H3/H2</f>
+        <f t="shared" ref="I3:I13" si="6">H3/H2</f>
         <v>20.618181818181817</v>
       </c>
       <c r="J3" s="2">
@@ -935,22 +1145,22 @@
         <v>189</v>
       </c>
       <c r="L3" s="2">
-        <f>K3/1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.8900000000000001E-7</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="N3" s="1">
         <v>221</v>
       </c>
       <c r="O3" s="5">
-        <f>N3/H3</f>
+        <f t="shared" si="3"/>
         <v>0.19488536155202821</v>
       </c>
       <c r="P3" s="2">
-        <f>N3/1000000000</f>
+        <f t="shared" si="4"/>
         <v>2.2100000000000001E-7</v>
       </c>
       <c r="Q3" s="2"/>
@@ -959,8 +1169,13 @@
       <c r="T3" s="7"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="24"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -971,14 +1186,14 @@
         <v>400</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>23360</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20.599647266313934</v>
       </c>
       <c r="J4" s="2">
@@ -989,22 +1204,22 @@
         <v>1577</v>
       </c>
       <c r="L4" s="2">
-        <f>K4/1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.5770000000000001E-6</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7508561643835618E-2</v>
       </c>
       <c r="N4" s="1">
         <v>1021</v>
       </c>
       <c r="O4" s="5">
-        <f>N4/H4</f>
+        <f t="shared" si="3"/>
         <v>4.370719178082192E-2</v>
       </c>
       <c r="P4" s="2">
-        <f>N4/1000000000</f>
+        <f t="shared" si="4"/>
         <v>1.0210000000000001E-6</v>
       </c>
       <c r="Q4" s="2"/>
@@ -1013,8 +1228,13 @@
       <c r="T4" s="7"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="24"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1025,14 +1245,14 @@
         <v>5362</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13.404999999999999</v>
       </c>
       <c r="H5" s="1">
         <v>318818</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13.648030821917809</v>
       </c>
       <c r="J5" s="2">
@@ -1043,22 +1263,22 @@
         <v>21346</v>
       </c>
       <c r="L5" s="2">
-        <f>K5/1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.1345999999999999E-5</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6953559711183178E-2</v>
       </c>
       <c r="N5" s="1">
         <v>15540</v>
       </c>
       <c r="O5" s="5">
-        <f>N5/H5</f>
+        <f t="shared" si="3"/>
         <v>4.8742542767346887E-2</v>
       </c>
       <c r="P5" s="2">
-        <f>N5/1000000000</f>
+        <f t="shared" si="4"/>
         <v>1.554E-5</v>
       </c>
       <c r="Q5" s="2"/>
@@ -1067,8 +1287,13 @@
       <c r="T5" s="7"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="24"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1079,14 +1304,14 @@
         <v>72078</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13.44237224916076</v>
       </c>
       <c r="H6" s="1">
         <v>4359874</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13.675118719771154</v>
       </c>
       <c r="J6" s="2">
@@ -1097,22 +1322,22 @@
         <v>292700</v>
       </c>
       <c r="L6" s="2">
-        <f>K6/1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.9270000000000001E-4</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7134967661909489E-2</v>
       </c>
       <c r="N6" s="1">
         <v>212830</v>
       </c>
       <c r="O6" s="5">
-        <f>N6/H6</f>
+        <f t="shared" si="3"/>
         <v>4.8815630910434567E-2</v>
       </c>
       <c r="P6" s="2">
-        <f>N6/1000000000</f>
+        <f t="shared" si="4"/>
         <v>2.1283000000000001E-4</v>
       </c>
       <c r="Q6" s="2"/>
@@ -1121,8 +1346,13 @@
       <c r="T6" s="7"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="24"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1133,14 +1363,14 @@
         <v>822518</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>11.41149865423569</v>
       </c>
       <c r="H7" s="1">
         <v>50521580</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.587853226951054</v>
       </c>
       <c r="J7" s="2">
@@ -1151,22 +1381,22 @@
         <v>4262875</v>
       </c>
       <c r="L7" s="2">
-        <f>K7/1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.2628750000000002E-3</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4377309656586352E-2</v>
       </c>
       <c r="N7" s="1">
         <v>3340972</v>
       </c>
       <c r="O7" s="5">
-        <f>N7/H7</f>
+        <f t="shared" si="3"/>
         <v>6.6129602439195287E-2</v>
       </c>
       <c r="P7" s="2">
-        <f>N7/1000000000</f>
+        <f t="shared" si="4"/>
         <v>3.3409720000000002E-3</v>
       </c>
       <c r="Q7" s="2"/>
@@ -1175,8 +1405,20 @@
       <c r="T7" s="7"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
+      <c r="W7" s="25">
+        <v>89504118</v>
+      </c>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="22">
+        <v>2.12</v>
+      </c>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="24">
+        <f>W7/Y7</f>
+        <v>42218923.584905662</v>
+      </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1187,14 +1429,14 @@
         <v>9417681</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>11.449817511592451</v>
       </c>
       <c r="H8" s="1">
         <v>587173651</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.62223451839788</v>
       </c>
       <c r="J8" s="2">
@@ -1205,22 +1447,22 @@
         <v>48888089</v>
       </c>
       <c r="L8" s="2">
-        <f>K8/1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.8888089000000003E-2</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3260018423408438E-2</v>
       </c>
       <c r="N8" s="1">
         <v>38130146</v>
       </c>
       <c r="O8" s="5">
-        <f>N8/H8</f>
+        <f t="shared" si="3"/>
         <v>6.4938448677084801E-2</v>
       </c>
       <c r="P8" s="2">
-        <f>N8/1000000000</f>
+        <f t="shared" si="4"/>
         <v>3.8130145999999997E-2</v>
       </c>
       <c r="Q8" s="2"/>
@@ -1236,15 +1478,33 @@
         <v>9077.0175999999974</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" ref="U8:U13" si="4">E8*T8/3600</f>
+        <f t="shared" ref="U8:U13" si="7">E8*T8/3600</f>
         <v>23745682.274495993</v>
       </c>
       <c r="V8" s="11">
-        <f t="shared" ref="V8:V13" si="5">U8/96/24</f>
+        <f t="shared" ref="V8:V13" si="8">U8/96/24</f>
         <v>10306.285709416663</v>
       </c>
+      <c r="W8" s="20">
+        <v>2267787813</v>
+      </c>
+      <c r="X8" s="26">
+        <f>W8/W7</f>
+        <v>25.337245522044025</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>20.266999999999999</v>
+      </c>
+      <c r="Z8" s="23">
+        <f>Y8/Y7</f>
+        <v>9.5599056603773569</v>
+      </c>
+      <c r="AA8" s="24">
+        <f>W8/Y8</f>
+        <v>111895584.5956481</v>
+      </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1255,14 +1515,14 @@
         <v>96400068</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.236072765684035</v>
       </c>
       <c r="H9" s="1">
         <v>6091865401</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10.374895723990857</v>
       </c>
       <c r="J9" s="2">
@@ -1273,22 +1533,22 @@
         <v>510402021</v>
       </c>
       <c r="L9" s="2">
-        <f>K9/1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.51040202099999998</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3784192099223956E-2</v>
       </c>
       <c r="N9" s="1">
         <v>395905201</v>
       </c>
       <c r="O9" s="5">
-        <f>N9/H9</f>
+        <f t="shared" si="3"/>
         <v>6.4989157661791225E-2</v>
       </c>
       <c r="P9" s="2">
-        <f>N9/1000000000</f>
+        <f t="shared" si="4"/>
         <v>0.39590520099999998</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -1306,15 +1566,34 @@
         <v>306.65599999999995</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8211572.0146133313</v>
       </c>
       <c r="V9" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3564.0503535648136</v>
       </c>
+      <c r="W9" s="25">
+        <v>57034684515</v>
+      </c>
+      <c r="X9" s="26">
+        <f>W9/W8</f>
+        <v>25.149921076412451</v>
+      </c>
+      <c r="Y9" s="22">
+        <f>60+28.843</f>
+        <v>88.843000000000004</v>
+      </c>
+      <c r="Z9" s="23">
+        <f>Y9/Y8</f>
+        <v>4.3836285587408108</v>
+      </c>
+      <c r="AA9" s="24">
+        <f>W9/Y9</f>
+        <v>641971618.64187384</v>
+      </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1325,14 +1604,14 @@
         <v>988187354</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.250898930901169</v>
       </c>
       <c r="H10" s="1">
         <v>63182420914</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10.371604878799259</v>
       </c>
       <c r="J10" s="2">
@@ -1343,22 +1622,22 @@
         <v>5259121674</v>
       </c>
       <c r="L10" s="2">
-        <f>K10/1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.2591216740000002</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3237102946061389E-2</v>
       </c>
       <c r="N10" s="1">
         <v>4076549873</v>
       </c>
       <c r="O10" s="5">
-        <f>N10/H10</f>
+        <f t="shared" si="3"/>
         <v>6.4520317740732774E-2</v>
       </c>
       <c r="P10" s="2">
-        <f>N10/1000000000</f>
+        <f t="shared" si="4"/>
         <v>4.0765498730000003</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -1376,15 +1655,34 @@
         <v>10.36</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2843783.607622222</v>
       </c>
       <c r="V10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1234.2810796971451</v>
       </c>
+      <c r="W10" s="25">
+        <v>1536813728747</v>
+      </c>
+      <c r="X10" s="26">
+        <f>W10/W9</f>
+        <v>26.945248173378101</v>
+      </c>
+      <c r="Y10" s="22">
+        <f>3*60+50</f>
+        <v>230</v>
+      </c>
+      <c r="Z10" s="23">
+        <f>Y10/Y9</f>
+        <v>2.5888364868363292</v>
+      </c>
+      <c r="AA10" s="24">
+        <f>W10/Y10</f>
+        <v>6681798820.6391306</v>
+      </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1400,7 +1698,7 @@
         <v>9183421888</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.2931991598831978</v>
       </c>
       <c r="G11" s="2">
@@ -1412,7 +1710,7 @@
         <v>596922422720</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.4476028946800543</v>
       </c>
       <c r="J11" s="2">
@@ -1424,11 +1722,11 @@
         <v>53723018044.799995</v>
       </c>
       <c r="L11" s="2">
-        <f>K11/1000000000</f>
+        <f t="shared" si="1"/>
         <v>53.723018044799993</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
       <c r="N11" s="10">
@@ -1436,11 +1734,11 @@
         <v>41784569590.400002</v>
       </c>
       <c r="O11" s="5">
-        <f>N11/H11</f>
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P11" s="2">
-        <f>N11/1000000000</f>
+        <f t="shared" si="4"/>
         <v>41.784569590400004</v>
       </c>
       <c r="Q11" s="12" t="s">
@@ -1458,15 +1756,34 @@
         <v>0.35</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>892832.68355555553</v>
       </c>
       <c r="V11" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>387.51418557098765</v>
       </c>
+      <c r="W11" s="25">
+        <v>41111284537604</v>
+      </c>
+      <c r="X11" s="26">
+        <f>W11/W10</f>
+        <v>26.750987298325988</v>
+      </c>
+      <c r="Y11" s="22">
+        <f>67*60+59</f>
+        <v>4079</v>
+      </c>
+      <c r="Z11" s="23">
+        <f>Y11/Y10</f>
+        <v>17.734782608695653</v>
+      </c>
+      <c r="AA11" s="24">
+        <f>W11/Y11</f>
+        <v>10078765515.470459</v>
+      </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1474,7 +1791,7 @@
         <v>69352859712417</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>28.42877646732596</v>
       </c>
       <c r="D12" s="1">
@@ -1484,7 +1801,7 @@
         <v>85375278064</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.2966738439361141</v>
       </c>
       <c r="G12" s="2">
@@ -1496,7 +1813,7 @@
         <v>5549393074160</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.2966738439361141</v>
       </c>
       <c r="J12" s="2">
@@ -1508,11 +1825,11 @@
         <v>499445376674.39996</v>
       </c>
       <c r="L12" s="2">
-        <f>K12/1000000000</f>
+        <f t="shared" si="1"/>
         <v>499.44537667439994</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
       <c r="N12" s="10">
@@ -1520,11 +1837,11 @@
         <v>388457515191.20001</v>
       </c>
       <c r="O12" s="5">
-        <f>N12/H12</f>
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P12" s="2">
-        <f>N12/1000000000</f>
+        <f t="shared" si="4"/>
         <v>388.4575151912</v>
       </c>
       <c r="Q12" s="12" t="s">
@@ -1543,15 +1860,34 @@
         <v>1.2E-2</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>284584.26021333336</v>
       </c>
       <c r="V12" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>123.51747405092594</v>
       </c>
+      <c r="W12" s="25">
+        <v>1165301810426200</v>
+      </c>
+      <c r="X12" s="26">
+        <f>W12/W11</f>
+        <v>28.345059599398127</v>
+      </c>
+      <c r="Y12" s="22">
+        <f>397*60+7</f>
+        <v>23827</v>
+      </c>
+      <c r="Z12" s="27">
+        <f>Y12/Y11</f>
+        <v>5.8413826918362339</v>
+      </c>
+      <c r="AA12" s="24">
+        <f>W12/Y12</f>
+        <v>48906778462.508919</v>
+      </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1562,7 +1898,7 @@
         <v>726155461002</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.5054535395791149</v>
       </c>
       <c r="H13" s="10">
@@ -1570,7 +1906,7 @@
         <v>47200104965130</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.5054535395791149</v>
       </c>
       <c r="J13" s="2">
@@ -1582,11 +1918,11 @@
         <v>4248009446861.6997</v>
       </c>
       <c r="L13" s="12">
-        <f>K13/1000000000</f>
+        <f t="shared" si="1"/>
         <v>4248.0094468616999</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
       <c r="N13" s="10">
@@ -1594,11 +1930,11 @@
         <v>3304007347559.1001</v>
       </c>
       <c r="O13" s="5">
-        <f>N13/H13</f>
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P13" s="12">
-        <f>N13/1000000000</f>
+        <f t="shared" si="4"/>
         <v>3304.0073475591003</v>
       </c>
       <c r="Q13" s="12"/>
@@ -1614,28 +1950,57 @@
         <v>6.6E-4</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>133128.50118369999</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>57.781467527647571</v>
       </c>
+      <c r="W13" s="28">
+        <v>3.28054674438386E+16</v>
+      </c>
+      <c r="X13" s="29">
+        <f>W13/W12</f>
+        <v>28.151906356208489</v>
+      </c>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="32"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:27">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="T14" s="7"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="14"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="15"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:27">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="T15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="14"/>
+      <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:27">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
       <c r="T16" s="7"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="14"/>
+      <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="20:20">
       <c r="T17" s="7"/>
